--- a/PlanExcel/TestCase.xlsx
+++ b/PlanExcel/TestCase.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8592"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8592" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="LOGIN" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="340" uniqueCount="154">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="394" uniqueCount="184">
   <si>
     <t>ID TestCase</t>
   </si>
@@ -116,9 +116,6 @@
     <t>Tìm kiếm bài hát với tên bài hát sai</t>
   </si>
   <si>
-    <t>Tìm kiếm tất cả bài hát có chữ "an" trong tên</t>
-  </si>
-  <si>
     <t>Tìm kiếm bài hát với từ khóa gồm các chữ thường</t>
   </si>
   <si>
@@ -371,9 +368,6 @@
     <t>Tên bài hát = okay</t>
   </si>
   <si>
-    <t>Hiển thị các bài hát có chữ "an" trong tên</t>
-  </si>
-  <si>
     <t>Hiển thị các bài hát được tìm thấy</t>
   </si>
   <si>
@@ -489,13 +483,109 @@
   </si>
   <si>
     <t>hiển thị thông báo xoá thành công</t>
+  </si>
+  <si>
+    <t>101122_17</t>
+  </si>
+  <si>
+    <t>101122_18</t>
+  </si>
+  <si>
+    <t>101122_19</t>
+  </si>
+  <si>
+    <t>101122_20</t>
+  </si>
+  <si>
+    <t>101122_21</t>
+  </si>
+  <si>
+    <t>101122_22</t>
+  </si>
+  <si>
+    <t>101122_23</t>
+  </si>
+  <si>
+    <t>101122_24</t>
+  </si>
+  <si>
+    <t>Tìm kiếm tất cả bài hát có chữ "nam" trong tên</t>
+  </si>
+  <si>
+    <t>Hiển thị các bài hát có chữ "nam" trong tên</t>
+  </si>
+  <si>
+    <t>Chỉnh sửa tên bài hát</t>
+  </si>
+  <si>
+    <t>Chỉnh sửa hình ảnh bài hát</t>
+  </si>
+  <si>
+    <t>Tên bài hát = Feel Good, Tên bài hát = Feel Good 3</t>
+  </si>
+  <si>
+    <t>Chỉnh sửa file bài hát</t>
+  </si>
+  <si>
+    <t>Tên bài hát = Feel Good, Tên bài hát = Feel Good 4</t>
+  </si>
+  <si>
+    <t>Thêm tài khoản mới</t>
+  </si>
+  <si>
+    <t>Chỉnh sửa thông tin tài khoản</t>
+  </si>
+  <si>
+    <t>Email = q@gmail.com, Password = 123456</t>
+  </si>
+  <si>
+    <t>Hiển thị thông báo thêm tài khoản thành công và tài khoản đó xuất hiện trong danh sách</t>
+  </si>
+  <si>
+    <t>Email = q@gmail.com, Email = q2@gmail.com,</t>
+  </si>
+  <si>
+    <t>Hiển thị thông báo chỉnh sửa tài khoản thành công và cập nhật thông tin tài khoản</t>
+  </si>
+  <si>
+    <t>Tìm kiếm bình luận</t>
+  </si>
+  <si>
+    <t>Nội dung bình luận = okay</t>
+  </si>
+  <si>
+    <t>Hiển thị bình luận cần tìm</t>
+  </si>
+  <si>
+    <t>Xoá bình luận</t>
+  </si>
+  <si>
+    <t>Chỉnh sửa bình luận</t>
+  </si>
+  <si>
+    <t>Hiển thị thông báo xoá thành công và loại bỏ bình luận</t>
+  </si>
+  <si>
+    <t>Nội dung bình luận = okay, Nội dung bình luận = okay2</t>
+  </si>
+  <si>
+    <t>Hiển thị thông báo chỉnh sửa bình luận thành công và cập nhật thông tin bình luận</t>
+  </si>
+  <si>
+    <t>Không phản hồi</t>
+  </si>
+  <si>
+    <t>Buộc phải chuyển sang chế độ offline mới có bài hát trên máy</t>
+  </si>
+  <si>
+    <t>Nếu tắt mạng thì có thể truy cập</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -508,24 +598,21 @@
       <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Times New Roman"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="10"/>
-      <color theme="1"/>
-      <name val="Times New Roman"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="5">
@@ -581,6 +668,9 @@
   </cellStyleXfs>
   <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -590,17 +680,12 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="80">
+  <dxfs count="76">
     <dxf>
       <font>
         <b/>
@@ -1216,14 +1301,6 @@
     </dxf>
     <dxf>
       <font>
-        <color rgb="FFB3A72F"/>
-      </font>
-      <fill>
-        <patternFill patternType="none"/>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
         <b/>
         <color rgb="FFFF0000"/>
       </font>
@@ -1324,30 +1401,6 @@
       <font>
         <b/>
         <color rgb="FF6AA84F"/>
-      </font>
-      <fill>
-        <patternFill patternType="none"/>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9900FF"/>
-      </font>
-      <fill>
-        <patternFill patternType="none"/>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFF09300"/>
-      </font>
-      <fill>
-        <patternFill patternType="none"/>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF11700A"/>
       </font>
       <fill>
         <patternFill patternType="none"/>
@@ -1663,50 +1716,51 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="I9" sqref="I9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="52.5546875" customWidth="1"/>
+    <col min="4" max="4" width="7.5546875" customWidth="1"/>
     <col min="6" max="6" width="49.21875" customWidth="1"/>
-    <col min="7" max="7" width="10.44140625" customWidth="1"/>
+    <col min="7" max="7" width="11" customWidth="1"/>
     <col min="11" max="11" width="10.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="39.6" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="G1" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="H1" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="I1" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="J1" s="3" t="s">
+      <c r="J1" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="K1" s="4" t="s">
+      <c r="K1" s="6" t="s">
         <v>7</v>
       </c>
     </row>
@@ -1718,22 +1772,22 @@
         <v>13</v>
       </c>
       <c r="C2" t="s">
-        <v>95</v>
-      </c>
-      <c r="D2" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="D2" s="1" t="s">
         <v>9</v>
       </c>
       <c r="E2" t="s">
         <v>8</v>
       </c>
       <c r="F2" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="G2" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="K2" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.3">
@@ -1744,22 +1798,22 @@
         <v>14</v>
       </c>
       <c r="C3" t="s">
-        <v>96</v>
-      </c>
-      <c r="D3" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="D3" s="1" t="s">
         <v>9</v>
       </c>
       <c r="E3" t="s">
         <v>8</v>
       </c>
       <c r="F3" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="G3" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="K3" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.3">
@@ -1770,22 +1824,22 @@
         <v>15</v>
       </c>
       <c r="C4" t="s">
-        <v>96</v>
-      </c>
-      <c r="D4" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="D4" s="1" t="s">
         <v>9</v>
       </c>
       <c r="E4" t="s">
         <v>8</v>
       </c>
       <c r="F4" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="G4" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="K4" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.3">
@@ -1796,22 +1850,22 @@
         <v>16</v>
       </c>
       <c r="C5" t="s">
-        <v>97</v>
-      </c>
-      <c r="D5" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="D5" s="1" t="s">
         <v>9</v>
       </c>
       <c r="E5" t="s">
         <v>8</v>
       </c>
       <c r="F5" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="G5" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="K5" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.3">
@@ -1822,22 +1876,22 @@
         <v>17</v>
       </c>
       <c r="C6" t="s">
-        <v>96</v>
-      </c>
-      <c r="D6" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="D6" s="1" t="s">
         <v>9</v>
       </c>
       <c r="E6" t="s">
         <v>8</v>
       </c>
       <c r="F6" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="G6" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="K6" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.3">
@@ -1848,25 +1902,31 @@
         <v>18</v>
       </c>
       <c r="C7" t="s">
-        <v>98</v>
-      </c>
-      <c r="D7" s="6" t="s">
-        <v>104</v>
+        <v>97</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>103</v>
       </c>
       <c r="E7" t="s">
         <v>8</v>
       </c>
       <c r="F7" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="G7" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="H7">
         <v>1</v>
       </c>
+      <c r="I7" t="s">
+        <v>181</v>
+      </c>
+      <c r="J7" t="s">
+        <v>181</v>
+      </c>
       <c r="K7" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.3">
@@ -1877,92 +1937,92 @@
         <v>19</v>
       </c>
       <c r="C8" t="s">
-        <v>96</v>
-      </c>
-      <c r="D8" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="D8" s="1" t="s">
         <v>9</v>
       </c>
       <c r="E8" t="s">
         <v>8</v>
       </c>
       <c r="F8" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="G8" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="K8" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
   </sheetData>
   <conditionalFormatting sqref="D1">
-    <cfRule type="cellIs" dxfId="79" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="75" priority="5" operator="equal">
       <formula>"Passed"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D1">
-    <cfRule type="cellIs" dxfId="78" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="74" priority="6" operator="equal">
       <formula>"Failed"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E1">
-    <cfRule type="cellIs" dxfId="77" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="73" priority="7" operator="equal">
       <formula>"Vy Nguyễn"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J1">
-    <cfRule type="cellIs" dxfId="73" priority="11" operator="equal">
+    <cfRule type="cellIs" dxfId="72" priority="11" operator="equal">
       <formula>"Done"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J1">
-    <cfRule type="cellIs" dxfId="72" priority="12" operator="equal">
+    <cfRule type="cellIs" dxfId="71" priority="12" operator="equal">
       <formula>"Pending"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H1">
-    <cfRule type="cellIs" dxfId="71" priority="13" operator="equal">
+    <cfRule type="cellIs" dxfId="70" priority="13" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H1">
-    <cfRule type="cellIs" dxfId="70" priority="14" operator="equal">
+    <cfRule type="cellIs" dxfId="69" priority="14" operator="equal">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H1">
-    <cfRule type="cellIs" dxfId="69" priority="15" operator="equal">
+    <cfRule type="cellIs" dxfId="68" priority="15" operator="equal">
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H1">
-    <cfRule type="cellIs" dxfId="68" priority="16" operator="equal">
+    <cfRule type="cellIs" dxfId="67" priority="16" operator="equal">
       <formula>4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H1">
-    <cfRule type="cellIs" dxfId="67" priority="17" operator="equal">
+    <cfRule type="cellIs" dxfId="66" priority="17" operator="equal">
       <formula>5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F1">
-    <cfRule type="containsText" dxfId="66" priority="18" operator="containsText" text="Pending">
+    <cfRule type="containsText" dxfId="65" priority="18" operator="containsText" text="Pending">
       <formula>NOT(ISERROR(SEARCH(("Pending"),(F1))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F1">
-    <cfRule type="cellIs" dxfId="65" priority="19" operator="equal">
+    <cfRule type="cellIs" dxfId="64" priority="19" operator="equal">
       <formula>"Lỗi lần 1"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F1">
-    <cfRule type="cellIs" dxfId="64" priority="20" operator="equal">
+    <cfRule type="cellIs" dxfId="63" priority="20" operator="equal">
       <formula>"Lỗi lần 2"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F1">
-    <cfRule type="cellIs" dxfId="63" priority="21" operator="equal">
+    <cfRule type="cellIs" dxfId="62" priority="21" operator="equal">
       <formula>"Lỗi lần 3"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -1997,10 +2057,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K22"/>
+  <dimension ref="A1:K26"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="F26" sqref="F26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2008,476 +2068,675 @@
     <col min="1" max="1" width="11" customWidth="1"/>
     <col min="2" max="2" width="51.109375" customWidth="1"/>
     <col min="3" max="3" width="9.77734375" customWidth="1"/>
+    <col min="4" max="4" width="7.109375" customWidth="1"/>
     <col min="6" max="6" width="60.109375" customWidth="1"/>
-    <col min="7" max="7" width="10.5546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.77734375" customWidth="1"/>
     <col min="11" max="11" width="11.33203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="39.6" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="G1" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="H1" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="I1" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="J1" s="3" t="s">
+      <c r="J1" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="K1" s="4" t="s">
+      <c r="K1" s="6" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B2" t="s">
         <v>27</v>
       </c>
       <c r="C2" t="s">
+        <v>107</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F2" t="s">
         <v>108</v>
       </c>
-      <c r="D2" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="E2" t="s">
-        <v>8</v>
-      </c>
-      <c r="F2" t="s">
-        <v>109</v>
-      </c>
-      <c r="G2" s="7">
-        <v>44845</v>
-      </c>
-      <c r="K2" s="7">
+      <c r="G2" s="3">
+        <v>44845</v>
+      </c>
+      <c r="K2" s="3">
         <v>44845</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B3" t="s">
         <v>28</v>
       </c>
       <c r="C3" t="s">
-        <v>110</v>
-      </c>
-      <c r="D3" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="D3" s="1" t="s">
         <v>9</v>
       </c>
       <c r="E3" t="s">
         <v>8</v>
       </c>
       <c r="F3" t="s">
-        <v>112</v>
-      </c>
-      <c r="G3" s="7">
-        <v>44845</v>
-      </c>
-      <c r="K3" s="7">
+        <v>111</v>
+      </c>
+      <c r="G3" s="3">
+        <v>44845</v>
+      </c>
+      <c r="K3" s="3">
         <v>44845</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B4" t="s">
-        <v>29</v>
+        <v>160</v>
       </c>
       <c r="C4" t="s">
-        <v>111</v>
-      </c>
-      <c r="D4" s="5" t="s">
+        <v>110</v>
+      </c>
+      <c r="D4" s="1" t="s">
         <v>9</v>
       </c>
       <c r="E4" t="s">
         <v>8</v>
       </c>
       <c r="F4" t="s">
-        <v>114</v>
-      </c>
-      <c r="G4" s="7">
-        <v>44845</v>
-      </c>
-      <c r="K4" s="7">
+        <v>161</v>
+      </c>
+      <c r="G4" s="3">
+        <v>44845</v>
+      </c>
+      <c r="K4" s="3">
         <v>44845</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C5" t="s">
+        <v>112</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E5" t="s">
+        <v>8</v>
+      </c>
+      <c r="F5" t="s">
         <v>113</v>
       </c>
-      <c r="D5" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="E5" t="s">
-        <v>8</v>
-      </c>
-      <c r="F5" t="s">
-        <v>115</v>
-      </c>
-      <c r="G5" s="7">
-        <v>44845</v>
-      </c>
-      <c r="K5" s="7">
+      <c r="G5" s="3">
+        <v>44845</v>
+      </c>
+      <c r="K5" s="3">
         <v>44845</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B6" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C6" t="s">
+        <v>114</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E6" t="s">
+        <v>8</v>
+      </c>
+      <c r="F6" t="s">
         <v>116</v>
       </c>
-      <c r="D6" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="E6" t="s">
-        <v>8</v>
-      </c>
-      <c r="F6" t="s">
-        <v>118</v>
-      </c>
-      <c r="G6" s="7">
-        <v>44845</v>
-      </c>
-      <c r="K6" s="7">
+      <c r="G6" s="3">
+        <v>44845</v>
+      </c>
+      <c r="K6" s="3">
         <v>44845</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B7" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C7" t="s">
-        <v>117</v>
-      </c>
-      <c r="D7" s="5" t="s">
+        <v>115</v>
+      </c>
+      <c r="D7" s="1" t="s">
         <v>9</v>
       </c>
       <c r="E7" t="s">
         <v>8</v>
       </c>
       <c r="F7" t="s">
-        <v>118</v>
-      </c>
-      <c r="G7" s="7">
-        <v>44845</v>
-      </c>
-      <c r="K7" s="7">
+        <v>116</v>
+      </c>
+      <c r="G7" s="3">
+        <v>44845</v>
+      </c>
+      <c r="K7" s="3">
         <v>44845</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B8" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C8" t="s">
-        <v>119</v>
-      </c>
-      <c r="D8" s="5" t="s">
+        <v>117</v>
+      </c>
+      <c r="D8" s="1" t="s">
         <v>9</v>
       </c>
       <c r="E8" t="s">
         <v>8</v>
       </c>
       <c r="F8" t="s">
-        <v>120</v>
-      </c>
-      <c r="G8" s="7">
-        <v>44845</v>
-      </c>
-      <c r="K8" s="7">
+        <v>118</v>
+      </c>
+      <c r="G8" s="3">
+        <v>44845</v>
+      </c>
+      <c r="K8" s="3">
         <v>44845</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B9" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C9" t="s">
-        <v>126</v>
-      </c>
-      <c r="D9" s="5" t="s">
+        <v>124</v>
+      </c>
+      <c r="D9" s="1" t="s">
         <v>9</v>
       </c>
       <c r="E9" t="s">
         <v>8</v>
       </c>
       <c r="F9" t="s">
-        <v>127</v>
-      </c>
-      <c r="G9" s="7">
-        <v>44845</v>
-      </c>
-      <c r="K9" s="7">
+        <v>125</v>
+      </c>
+      <c r="G9" s="3">
+        <v>44845</v>
+      </c>
+      <c r="K9" s="3">
         <v>44845</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B10" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C10" t="s">
-        <v>126</v>
-      </c>
-      <c r="D10" s="5" t="s">
+        <v>124</v>
+      </c>
+      <c r="D10" s="1" t="s">
         <v>9</v>
       </c>
       <c r="E10" t="s">
         <v>8</v>
       </c>
       <c r="F10" t="s">
-        <v>127</v>
-      </c>
-      <c r="G10" s="7">
-        <v>44845</v>
-      </c>
-      <c r="K10" s="7">
+        <v>125</v>
+      </c>
+      <c r="G10" s="3">
+        <v>44845</v>
+      </c>
+      <c r="K10" s="3">
         <v>44845</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B11" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C11" t="s">
+        <v>127</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E11" t="s">
+        <v>8</v>
+      </c>
+      <c r="F11" t="s">
         <v>129</v>
       </c>
-      <c r="D11" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="E11" t="s">
-        <v>8</v>
-      </c>
-      <c r="F11" t="s">
-        <v>131</v>
-      </c>
-      <c r="G11" s="7">
-        <v>44845</v>
-      </c>
-      <c r="K11" s="7">
+      <c r="G11" s="3">
+        <v>44845</v>
+      </c>
+      <c r="K11" s="3">
         <v>44845</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B12" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C12" t="s">
-        <v>126</v>
-      </c>
-      <c r="D12" s="5" t="s">
+        <v>124</v>
+      </c>
+      <c r="D12" s="1" t="s">
         <v>9</v>
       </c>
       <c r="E12" t="s">
         <v>8</v>
       </c>
       <c r="F12" t="s">
-        <v>130</v>
-      </c>
-      <c r="G12" s="7">
-        <v>44845</v>
-      </c>
-      <c r="K12" s="7">
+        <v>128</v>
+      </c>
+      <c r="G12" s="3">
+        <v>44845</v>
+      </c>
+      <c r="K12" s="3">
         <v>44845</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B13" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C13" t="s">
-        <v>132</v>
-      </c>
-      <c r="D13" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="D13" s="1" t="s">
         <v>9</v>
       </c>
       <c r="E13" t="s">
         <v>8</v>
       </c>
       <c r="F13" t="s">
-        <v>128</v>
-      </c>
-      <c r="G13" s="7">
-        <v>44845</v>
-      </c>
-      <c r="K13" s="7">
+        <v>126</v>
+      </c>
+      <c r="G13" s="3">
+        <v>44845</v>
+      </c>
+      <c r="K13" s="3">
         <v>44845</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B14" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C14" t="s">
-        <v>132</v>
-      </c>
-      <c r="D14" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="D14" s="1" t="s">
         <v>9</v>
       </c>
       <c r="E14" t="s">
         <v>8</v>
       </c>
       <c r="F14" t="s">
-        <v>128</v>
-      </c>
-      <c r="G14" s="7">
-        <v>44845</v>
-      </c>
-      <c r="K14" s="7">
+        <v>126</v>
+      </c>
+      <c r="G14" s="3">
+        <v>44845</v>
+      </c>
+      <c r="K14" s="3">
         <v>44845</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B15" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C15" t="s">
-        <v>133</v>
-      </c>
-      <c r="D15" s="5" t="s">
+        <v>131</v>
+      </c>
+      <c r="D15" s="1" t="s">
         <v>9</v>
       </c>
       <c r="E15" t="s">
         <v>8</v>
       </c>
       <c r="F15" t="s">
-        <v>134</v>
-      </c>
-      <c r="G15" s="7">
-        <v>44845</v>
-      </c>
-      <c r="K15" s="7">
+        <v>132</v>
+      </c>
+      <c r="G15" s="3">
+        <v>44845</v>
+      </c>
+      <c r="K15" s="3">
         <v>44845</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B16" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C16" t="s">
-        <v>135</v>
-      </c>
-      <c r="D16" s="5" t="s">
+        <v>133</v>
+      </c>
+      <c r="D16" s="1" t="s">
         <v>9</v>
       </c>
       <c r="E16" t="s">
         <v>8</v>
       </c>
       <c r="F16" t="s">
-        <v>136</v>
-      </c>
-      <c r="G16" s="7">
-        <v>44845</v>
-      </c>
-      <c r="K16" s="7">
+        <v>134</v>
+      </c>
+      <c r="G16" s="3">
+        <v>44845</v>
+      </c>
+      <c r="K16" s="3">
         <v>44845</v>
       </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B17" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C17" t="s">
-        <v>135</v>
-      </c>
-      <c r="D17" s="5" t="s">
+        <v>133</v>
+      </c>
+      <c r="D17" s="1" t="s">
         <v>9</v>
       </c>
       <c r="E17" t="s">
         <v>8</v>
       </c>
       <c r="F17" t="s">
-        <v>130</v>
-      </c>
-      <c r="G17" s="7">
-        <v>44845</v>
-      </c>
-      <c r="K17" s="7">
+        <v>128</v>
+      </c>
+      <c r="G17" s="3">
+        <v>44845</v>
+      </c>
+      <c r="K17" s="3">
         <v>44845</v>
       </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="G18" s="7"/>
+      <c r="A18" t="s">
+        <v>152</v>
+      </c>
+      <c r="B18" t="s">
+        <v>162</v>
+      </c>
+      <c r="C18" t="s">
+        <v>107</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E18" t="s">
+        <v>8</v>
+      </c>
+      <c r="F18" t="s">
+        <v>129</v>
+      </c>
+      <c r="G18" s="3">
+        <v>44845</v>
+      </c>
+      <c r="K18" s="3">
+        <v>44845</v>
+      </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="G19" s="7"/>
+      <c r="A19" t="s">
+        <v>153</v>
+      </c>
+      <c r="B19" t="s">
+        <v>163</v>
+      </c>
+      <c r="C19" t="s">
+        <v>164</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E19" t="s">
+        <v>8</v>
+      </c>
+      <c r="F19" t="s">
+        <v>129</v>
+      </c>
+      <c r="G19" s="3">
+        <v>44845</v>
+      </c>
+      <c r="K19" s="3">
+        <v>44845</v>
+      </c>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="G20" s="7"/>
+      <c r="A20" t="s">
+        <v>154</v>
+      </c>
+      <c r="B20" t="s">
+        <v>165</v>
+      </c>
+      <c r="C20" t="s">
+        <v>166</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E20" t="s">
+        <v>8</v>
+      </c>
+      <c r="F20" t="s">
+        <v>129</v>
+      </c>
+      <c r="G20" s="3">
+        <v>44845</v>
+      </c>
+      <c r="K20" s="3">
+        <v>44845</v>
+      </c>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="G21" s="7"/>
+      <c r="A21" t="s">
+        <v>155</v>
+      </c>
+      <c r="B21" t="s">
+        <v>167</v>
+      </c>
+      <c r="C21" t="s">
+        <v>169</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E21" t="s">
+        <v>8</v>
+      </c>
+      <c r="F21" t="s">
+        <v>170</v>
+      </c>
+      <c r="G21" s="3">
+        <v>44845</v>
+      </c>
+      <c r="K21" s="3">
+        <v>44845</v>
+      </c>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="G22" s="7"/>
+      <c r="A22" t="s">
+        <v>156</v>
+      </c>
+      <c r="B22" t="s">
+        <v>168</v>
+      </c>
+      <c r="C22" t="s">
+        <v>171</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E22" t="s">
+        <v>8</v>
+      </c>
+      <c r="F22" t="s">
+        <v>172</v>
+      </c>
+      <c r="G22" s="3">
+        <v>44845</v>
+      </c>
+      <c r="K22" s="3">
+        <v>44845</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>157</v>
+      </c>
+      <c r="B23" t="s">
+        <v>173</v>
+      </c>
+      <c r="C23" t="s">
+        <v>174</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E23" t="s">
+        <v>8</v>
+      </c>
+      <c r="F23" t="s">
+        <v>175</v>
+      </c>
+      <c r="G23" s="3">
+        <v>44845</v>
+      </c>
+      <c r="K23" s="3">
+        <v>44845</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>158</v>
+      </c>
+      <c r="B24" t="s">
+        <v>176</v>
+      </c>
+      <c r="C24" t="s">
+        <v>174</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E24" t="s">
+        <v>8</v>
+      </c>
+      <c r="F24" t="s">
+        <v>178</v>
+      </c>
+      <c r="G24" s="3">
+        <v>44845</v>
+      </c>
+      <c r="K24" s="3">
+        <v>44845</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
+        <v>159</v>
+      </c>
+      <c r="B25" t="s">
+        <v>177</v>
+      </c>
+      <c r="C25" t="s">
+        <v>179</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E25" t="s">
+        <v>8</v>
+      </c>
+      <c r="F25" t="s">
+        <v>180</v>
+      </c>
+      <c r="G25" s="3">
+        <v>44845</v>
+      </c>
+      <c r="K25" s="3">
+        <v>44845</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="D26" s="7"/>
+      <c r="G26" s="3"/>
+      <c r="K26" s="3"/>
     </row>
   </sheetData>
   <conditionalFormatting sqref="D1">
@@ -2583,8 +2842,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G17" sqref="G17"/>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2592,286 +2851,305 @@
     <col min="1" max="1" width="10.5546875" customWidth="1"/>
     <col min="2" max="2" width="44.109375" customWidth="1"/>
     <col min="3" max="3" width="9.88671875" customWidth="1"/>
+    <col min="4" max="4" width="7" customWidth="1"/>
     <col min="6" max="6" width="20" customWidth="1"/>
     <col min="7" max="7" width="11" customWidth="1"/>
     <col min="11" max="11" width="10.88671875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="39.6" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="G1" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="H1" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="I1" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="J1" s="3" t="s">
+      <c r="J1" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="K1" s="4" t="s">
+      <c r="K1" s="6" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B2" t="s">
-        <v>43</v>
-      </c>
-      <c r="D2" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="D2" s="1" t="s">
         <v>9</v>
       </c>
       <c r="E2" t="s">
         <v>8</v>
       </c>
       <c r="F2" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="G2" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="K2" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B3" t="s">
-        <v>44</v>
-      </c>
-      <c r="D3" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="D3" s="1" t="s">
         <v>9</v>
       </c>
       <c r="E3" t="s">
         <v>8</v>
       </c>
       <c r="F3" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="G3" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="K3" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B4" t="s">
-        <v>45</v>
-      </c>
-      <c r="D4" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="D4" s="1" t="s">
         <v>9</v>
       </c>
       <c r="E4" t="s">
         <v>8</v>
       </c>
       <c r="F4" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="G4" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="K4" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B5" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="C5" t="s">
-        <v>142</v>
-      </c>
-      <c r="D5" s="5" t="s">
+        <v>140</v>
+      </c>
+      <c r="D5" s="1" t="s">
         <v>9</v>
       </c>
       <c r="E5" t="s">
         <v>8</v>
       </c>
       <c r="F5" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="G5" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="K5" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B6" t="s">
-        <v>46</v>
-      </c>
-      <c r="D6" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="D6" s="1" t="s">
         <v>9</v>
       </c>
       <c r="E6" t="s">
         <v>8</v>
       </c>
       <c r="F6" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="G6" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="K6" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B7" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="C7" t="s">
-        <v>139</v>
-      </c>
-      <c r="D7" s="5" t="s">
+        <v>137</v>
+      </c>
+      <c r="D7" s="1" t="s">
         <v>9</v>
       </c>
       <c r="E7" t="s">
         <v>8</v>
       </c>
       <c r="F7" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="G7" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="K7" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B8" t="s">
-        <v>47</v>
-      </c>
-      <c r="D8" s="6" t="s">
-        <v>104</v>
+        <v>46</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>103</v>
       </c>
       <c r="E8" t="s">
         <v>8</v>
       </c>
       <c r="F8" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="G8" t="s">
-        <v>137</v>
+        <v>135</v>
+      </c>
+      <c r="H8">
+        <v>1</v>
+      </c>
+      <c r="I8" t="s">
+        <v>182</v>
+      </c>
+      <c r="J8" t="s">
+        <v>182</v>
       </c>
       <c r="K8" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B9" t="s">
-        <v>48</v>
-      </c>
-      <c r="D9" s="6" t="s">
-        <v>104</v>
+        <v>47</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>103</v>
       </c>
       <c r="E9" t="s">
         <v>8</v>
       </c>
       <c r="F9" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="G9" t="s">
-        <v>137</v>
+        <v>135</v>
+      </c>
+      <c r="H9">
+        <v>1</v>
+      </c>
+      <c r="I9" t="s">
+        <v>183</v>
+      </c>
+      <c r="J9" t="s">
+        <v>183</v>
       </c>
       <c r="K9" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B10" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="C10" t="s">
-        <v>143</v>
-      </c>
-      <c r="D10" s="5" t="s">
+        <v>141</v>
+      </c>
+      <c r="D10" s="1" t="s">
         <v>9</v>
       </c>
       <c r="E10" t="s">
         <v>8</v>
       </c>
       <c r="F10" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="G10" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="K10" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B11" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="C11" t="s">
-        <v>144</v>
-      </c>
-      <c r="D11" s="5" t="s">
+        <v>142</v>
+      </c>
+      <c r="D11" s="1" t="s">
         <v>9</v>
       </c>
       <c r="E11" t="s">
         <v>8</v>
       </c>
       <c r="F11" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="G11" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="K11" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
     </row>
   </sheetData>
@@ -2978,282 +3256,283 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="10" customWidth="1"/>
     <col min="2" max="2" width="53.21875" customWidth="1"/>
+    <col min="4" max="4" width="7.33203125" customWidth="1"/>
     <col min="6" max="6" width="28.33203125" customWidth="1"/>
     <col min="7" max="7" width="11.109375" customWidth="1"/>
     <col min="11" max="11" width="11" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="39.6" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="G1" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="H1" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="I1" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="J1" s="3" t="s">
+      <c r="J1" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="K1" s="4" t="s">
+      <c r="K1" s="6" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B2" t="s">
-        <v>49</v>
-      </c>
-      <c r="D2" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="D2" s="1" t="s">
         <v>9</v>
       </c>
       <c r="E2" t="s">
         <v>8</v>
       </c>
       <c r="F2" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="G2" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="K2" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B3" t="s">
-        <v>50</v>
-      </c>
-      <c r="D3" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="D3" s="1" t="s">
         <v>9</v>
       </c>
       <c r="E3" t="s">
         <v>8</v>
       </c>
       <c r="F3" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="G3" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="K3" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B4" t="s">
-        <v>51</v>
-      </c>
-      <c r="D4" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="D4" s="1" t="s">
         <v>9</v>
       </c>
       <c r="E4" t="s">
         <v>8</v>
       </c>
       <c r="F4" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="G4" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="K4" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B5" t="s">
-        <v>52</v>
-      </c>
-      <c r="D5" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="D5" s="1" t="s">
         <v>9</v>
       </c>
       <c r="E5" t="s">
         <v>8</v>
       </c>
       <c r="F5" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="G5" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="K5" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B6" t="s">
-        <v>53</v>
-      </c>
-      <c r="D6" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="D6" s="1" t="s">
         <v>9</v>
       </c>
       <c r="E6" t="s">
         <v>8</v>
       </c>
       <c r="F6" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="G6" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="K6" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B7" t="s">
-        <v>90</v>
-      </c>
-      <c r="D7" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="D7" s="1" t="s">
         <v>9</v>
       </c>
       <c r="E7" t="s">
         <v>8</v>
       </c>
       <c r="F7" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="G7" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="K7" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B8" t="s">
-        <v>91</v>
-      </c>
-      <c r="D8" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="D8" s="1" t="s">
         <v>9</v>
       </c>
       <c r="E8" t="s">
         <v>8</v>
       </c>
       <c r="F8" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="G8" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="K8" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B9" t="s">
-        <v>92</v>
-      </c>
-      <c r="D9" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="D9" s="1" t="s">
         <v>9</v>
       </c>
       <c r="E9" t="s">
         <v>8</v>
       </c>
       <c r="F9" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="G9" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="K9" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B10" t="s">
-        <v>93</v>
-      </c>
-      <c r="D10" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="D10" s="1" t="s">
         <v>9</v>
       </c>
       <c r="E10" t="s">
         <v>8</v>
       </c>
       <c r="F10" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="G10" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="K10" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B11" t="s">
-        <v>107</v>
-      </c>
-      <c r="D11" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="D11" s="1" t="s">
         <v>9</v>
       </c>
       <c r="E11" t="s">
         <v>8</v>
       </c>
       <c r="F11" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="G11" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="K11" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
     </row>
   </sheetData>
@@ -3353,5 +3632,6 @@
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/PlanExcel/TestCase.xlsx
+++ b/PlanExcel/TestCase.xlsx
@@ -16,6 +16,7 @@
     <sheet name="ADMIN" sheetId="2" r:id="rId2"/>
     <sheet name="STATE" sheetId="3" r:id="rId3"/>
     <sheet name="UI, UX" sheetId="4" r:id="rId4"/>
+    <sheet name="VER" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -27,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="394" uniqueCount="184">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="395" uniqueCount="185">
   <si>
     <t>ID TestCase</t>
   </si>
@@ -579,6 +580,9 @@
   </si>
   <si>
     <t>Nếu tắt mạng thì có thể truy cập</t>
+  </si>
+  <si>
+    <t>Version = 1.0</t>
   </si>
 </sst>
 </file>
@@ -1716,7 +1720,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K8"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView topLeftCell="B1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <selection activeCell="I9" sqref="I9"/>
     </sheetView>
   </sheetViews>
@@ -3634,4 +3638,24 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>184</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>